--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4586.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4586.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lorcan John Tucker</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4285</t>
+          <t>4285</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4343</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4347</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4352</t>
+          <t>4352</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4391</t>
+          <t>4391</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4394</t>
+          <t>4394</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4397</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4426</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4427</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1011,7 +1076,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1019,7 +1083,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4428</t>
+          <t>4428</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1071,7 +1135,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4439</t>
+          <t>4439</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1187,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4442</t>
+          <t>4442</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1175,7 +1239,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1227,7 +1291,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1279,7 +1343,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1331,7 +1395,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4466</t>
+          <t>4466</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1371,7 +1435,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1379,7 +1442,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4467</t>
+          <t>4467</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1431,7 +1494,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4468</t>
+          <t>4468</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1471,7 +1534,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1479,7 +1541,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4474</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1519,7 +1581,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1527,7 +1588,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4475</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1579,7 +1640,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4478</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1631,7 +1692,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4492</t>
+          <t>4492</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1683,7 +1744,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4494</t>
+          <t>4494</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1723,7 +1784,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -1731,7 +1791,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4496</t>
+          <t>4496</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1783,7 +1843,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4519</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1835,7 +1895,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1887,7 +1947,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4608</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1939,7 +1999,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1991,7 +2051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4693</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2043,7 +2103,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4694</t>
+          <t>4694</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2083,7 +2143,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -2091,7 +2150,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4696</t>
+          <t>4696</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2143,7 +2202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4726</t>
+          <t>4726</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2183,7 +2242,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -2191,7 +2249,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4729</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2243,7 +2301,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4734</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2274,6 +2332,509 @@
       <c r="J36" t="inlineStr">
         <is>
           <t>31</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4466</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4467</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4468</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.68%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4475</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4478</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.14%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4496</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4519</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.67%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4608</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4693</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4694</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.74%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4696</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4726</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4729</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4734</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.72%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IRE/PlayerPerformance_4586.xlsx
+++ b/bin/sheets/main_db/teams/IRE/PlayerPerformance_4586.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1076,6 +1075,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/08/2020</t>
@@ -1435,6 +1435,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>04/06/2021</t>
@@ -1534,6 +1535,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>11/07/2021</t>
@@ -1581,6 +1583,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>13/07/2021</t>
@@ -1784,6 +1787,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/09/2021</t>
@@ -2143,6 +2147,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>23/01/2023</t>
@@ -2155,7 +2160,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2242,6 +2247,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>20/03/2023</t>
@@ -2254,7 +2260,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2332,509 +2338,6 @@
       <c r="J36" t="inlineStr">
         <is>
           <t>31</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.57%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4466</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.12%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4467</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.68%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4475</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>8</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4478</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4492</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.14%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4494</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4496</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4519</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.67%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4608</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8.80%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.90%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4693</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4694</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.74%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4696</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4726</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4729</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4734</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>27.72%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
